--- a/public/excel-example/dsthongtinnhanvienexport.xlsx
+++ b/public/excel-example/dsthongtinnhanvienexport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intern\www\project_intern\public\excel-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F7DFE4-BB73-4379-B964-CD366C478E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074B32F-A7BB-45E7-9B73-BE3CA8CBDB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BBD8EB1-2733-4CA3-A376-598CEF2880FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4448FACC-1761-40E7-8DF7-B7343B8F2B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Danh sách thông tin nhân viên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Tên nhân viên</t>
+    <t>Danh sách thông tin nhân sự</t>
+  </si>
+  <si>
+    <t>Họ và Tên</t>
   </si>
   <si>
     <t>Giới tính</t>
@@ -65,22 +65,46 @@
     <t>Địa chỉ thường trú</t>
   </si>
   <si>
+    <t>CMND/CCCD</t>
+  </si>
+  <si>
     <t>Trình độ học vấn</t>
   </si>
   <si>
+    <t>Loại nhân viên</t>
+  </si>
+  <si>
+    <t>Phòng ban</t>
+  </si>
+  <si>
+    <t>Dân tộc</t>
+  </si>
+  <si>
+    <t>Quốc tịch</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Ngày cấp</t>
+  </si>
+  <si>
+    <t>Nơi cấp</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
     <t>Vị trí công việc</t>
   </si>
   <si>
-    <t>Loại nhân viên</t>
-  </si>
-  <si>
-    <t>Phòng ban</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>CMND/CCCD</t>
+    <t>Tôn giáo</t>
+  </si>
+  <si>
+    <t>Trạng thái hôn nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạng thái </t>
   </si>
 </sst>
 </file>
@@ -111,12 +135,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,22 +168,53 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,34 +550,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D87067-9DE3-4C15-90E4-056F19995CC3}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E51221-3E08-403E-8C9C-838EBE769A46}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -537,10 +601,18 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -558,33 +630,57 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
+      <c r="U2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
